--- a/sict/day7/최종Test Folder/output/2023년5월16일 코로나 확진자 정리본.xlsx
+++ b/sict/day7/최종Test Folder/output/2023년5월16일 코로나 확진자 정리본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day7\최종Test Folder\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3730205-B96D-4D11-B245-19FA79F14D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A9AAD2-331E-457B-858A-69A4133B241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2677D2C6-B67F-40F6-8C25-FAA5D2AB003D}"/>
   </bookViews>
@@ -114,7 +114,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="179" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -245,7 +245,7 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5477306A-D301-450E-9D52-D9E39890BC2C}">
   <dimension ref="A2:M373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -585,7 +585,9 @@
       <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="15"/>
+      <c r="M2" s="15">
+        <v>27269.32</v>
+      </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L3" s="5" t="s">
@@ -1653,7 +1655,9 @@
       <c r="A40" s="12">
         <v>44713</v>
       </c>
-      <c r="B40" s="13"/>
+      <c r="B40" s="11">
+        <v>17177</v>
+      </c>
       <c r="C40" s="13">
         <v>15735</v>
       </c>

--- a/sict/day7/최종Test Folder/output/2023년5월16일 코로나 확진자 정리본.xlsx
+++ b/sict/day7/최종Test Folder/output/2023년5월16일 코로나 확진자 정리본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day7\최종Test Folder\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9A9AAD2-331E-457B-858A-69A4133B241A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7483A4E1-97C7-4EA7-89E5-5BC3BD04DEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2677D2C6-B67F-40F6-8C25-FAA5D2AB003D}"/>
   </bookViews>
@@ -566,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5477306A-D301-450E-9D52-D9E39890BC2C}">
   <dimension ref="A2:M373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -593,7 +593,9 @@
       <c r="L3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="7"/>
+      <c r="M3" s="7">
+        <v>250164</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L4" s="5" t="s">

--- a/sict/day7/최종Test Folder/output/2023년5월16일 코로나 확진자 정리본.xlsx
+++ b/sict/day7/최종Test Folder/output/2023년5월16일 코로나 확진자 정리본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day7\최종Test Folder\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7483A4E1-97C7-4EA7-89E5-5BC3BD04DEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C64B183-0256-4FAC-8913-2EE7C7DE5116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2677D2C6-B67F-40F6-8C25-FAA5D2AB003D}"/>
   </bookViews>
@@ -112,9 +112,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="176" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -199,7 +198,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -244,9 +243,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -566,8 +562,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5477306A-D301-450E-9D52-D9E39890BC2C}">
   <dimension ref="A2:M373"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -585,8 +581,8 @@
       <c r="L2" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="M2" s="15">
-        <v>27269.32</v>
+      <c r="M2" s="7">
+        <v>27224.3</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.4">
@@ -601,7 +597,9 @@
       <c r="L4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M4" s="9"/>
+      <c r="M4" s="9">
+        <v>111724</v>
+      </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="L5" s="5" t="s">
@@ -1657,8 +1655,8 @@
       <c r="A40" s="12">
         <v>44713</v>
       </c>
-      <c r="B40" s="11">
-        <v>17177</v>
+      <c r="B40" s="13">
+        <v>15782</v>
       </c>
       <c r="C40" s="13">
         <v>15735</v>

--- a/sict/day7/최종Test Folder/output/2023년5월16일 코로나 확진자 정리본.xlsx
+++ b/sict/day7/최종Test Folder/output/2023년5월16일 코로나 확진자 정리본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day7\최종Test Folder\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C64B183-0256-4FAC-8913-2EE7C7DE5116}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2298FEC-8FC4-4CEA-BE08-7B087BB963C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2677D2C6-B67F-40F6-8C25-FAA5D2AB003D}"/>
   </bookViews>
@@ -590,7 +590,7 @@
         <v>16</v>
       </c>
       <c r="M3" s="7">
-        <v>250164</v>
+        <v>249343</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.4">
@@ -598,7 +598,7 @@
         <v>10</v>
       </c>
       <c r="M4" s="9">
-        <v>111724</v>
+        <v>100191</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.4">

--- a/sict/day7/최종Test Folder/output/2023년5월16일 코로나 확진자 정리본.xlsx
+++ b/sict/day7/최종Test Folder/output/2023년5월16일 코로나 확진자 정리본.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Jun\learning-uipath\sict\day7\최종Test Folder\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2298FEC-8FC4-4CEA-BE08-7B087BB963C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DE39DB6-C334-434C-BD11-5A27CCB717B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2677D2C6-B67F-40F6-8C25-FAA5D2AB003D}"/>
   </bookViews>
